--- a/HistoricoDolar.xlsx
+++ b/HistoricoDolar.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609DD574-2C72-4FB7-9757-DDB60A394472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5399FFD7-6A46-4A45-BBB0-39E3E9F217AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:D4090"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8:B4085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33268,12 +33268,8 @@
       </c>
     </row>
     <row r="4086" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4086" s="7">
-        <v>44986</v>
-      </c>
-      <c r="B4086" s="8">
-        <v>4814.1099999999997</v>
-      </c>
+      <c r="A4086" s="7"/>
+      <c r="B4086" s="8"/>
     </row>
     <row r="4087" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4087" s="1" t="s">
